--- a/team_specific_matrix/Pittsburgh_B.xlsx
+++ b/team_specific_matrix/Pittsburgh_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1604938271604938</v>
+        <v>0.16289592760181</v>
       </c>
       <c r="C2">
-        <v>0.654320987654321</v>
+        <v>0.6561085972850679</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09876543209876543</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08641975308641975</v>
+        <v>0.08144796380090498</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009174311926605505</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C3">
-        <v>0.04587155963302753</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009174311926605505</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7889908256880734</v>
+        <v>0.7651006711409396</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1467889908256881</v>
+        <v>0.174496644295302</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5789473684210527</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4210526315789473</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05442176870748299</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01360544217687075</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03401360544217687</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2244897959183673</v>
+        <v>0.2205128205128205</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02040816326530612</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1836734693877551</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="R6">
-        <v>0.05442176870748299</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="S6">
-        <v>0.4149659863945578</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09917355371900827</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01652892561983471</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04132231404958678</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0743801652892562</v>
+        <v>0.1024096385542169</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01652892561983471</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2727272727272727</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="R7">
-        <v>0.1322314049586777</v>
+        <v>0.1144578313253012</v>
       </c>
       <c r="S7">
-        <v>0.3471074380165289</v>
+        <v>0.3433734939759036</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06766917293233082</v>
+        <v>0.07277628032345014</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01879699248120301</v>
+        <v>0.01347708894878706</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06766917293233082</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1353383458646616</v>
+        <v>0.1078167115902965</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007518796992481203</v>
+        <v>0.008086253369272238</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1691729323308271</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="R8">
-        <v>0.1090225563909774</v>
+        <v>0.1078167115902965</v>
       </c>
       <c r="S8">
-        <v>0.424812030075188</v>
+        <v>0.4582210242587601</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09523809523809523</v>
+        <v>0.09787234042553192</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0119047619047619</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E9">
-        <v>0.005952380952380952</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="F9">
-        <v>0.06547619047619048</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1071428571428571</v>
+        <v>0.1021276595744681</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03571428571428571</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1547619047619048</v>
+        <v>0.1574468085106383</v>
       </c>
       <c r="R9">
-        <v>0.09523809523809523</v>
+        <v>0.09787234042553192</v>
       </c>
       <c r="S9">
-        <v>0.4285714285714285</v>
+        <v>0.425531914893617</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09950859950859951</v>
+        <v>0.1002892960462874</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01474201474201474</v>
+        <v>0.01735776277724204</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0773955773955774</v>
+        <v>0.07521697203471553</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1044226044226044</v>
+        <v>0.09739633558341369</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01228501228501228</v>
+        <v>0.01253616200578592</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.214987714987715</v>
+        <v>0.2121504339440694</v>
       </c>
       <c r="R10">
-        <v>0.07616707616707617</v>
+        <v>0.0703953712632594</v>
       </c>
       <c r="S10">
-        <v>0.4004914004914005</v>
+        <v>0.4146576663452266</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1344086021505376</v>
+        <v>0.1391941391941392</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1236559139784946</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="K11">
-        <v>0.1827956989247312</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="L11">
-        <v>0.5483870967741935</v>
+        <v>0.5311355311355311</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01075268817204301</v>
+        <v>0.01098901098901099</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7142857142857143</v>
+        <v>0.6878980891719745</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2142857142857143</v>
+        <v>0.2292993630573248</v>
       </c>
       <c r="K12">
-        <v>0.01785714285714286</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="L12">
-        <v>0.03571428571428571</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01785714285714286</v>
+        <v>0.03184713375796178</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7037037037037037</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2962962962962963</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0375</v>
+        <v>0.03398058252427184</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1625</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="I15">
-        <v>0.11875</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="J15">
-        <v>0.35</v>
+        <v>0.3106796116504854</v>
       </c>
       <c r="K15">
-        <v>0.05625</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00625</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05625</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2125</v>
+        <v>0.2233009708737864</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01851851851851852</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1388888888888889</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="I16">
-        <v>0.09259259259259259</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="J16">
-        <v>0.4351851851851852</v>
+        <v>0.4144736842105263</v>
       </c>
       <c r="K16">
-        <v>0.09259259259259259</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.009259259259259259</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07407407407407407</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1388888888888889</v>
+        <v>0.1513157894736842</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01967213114754099</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1639344262295082</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I17">
-        <v>0.1180327868852459</v>
+        <v>0.1256410256410256</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.3871794871794872</v>
       </c>
       <c r="K17">
-        <v>0.08196721311475409</v>
+        <v>0.09487179487179487</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02295081967213115</v>
+        <v>0.01794871794871795</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08196721311475409</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1114754098360656</v>
+        <v>0.1128205128205128</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007751937984496124</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1705426356589147</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="I18">
-        <v>0.09302325581395349</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="J18">
-        <v>0.3953488372093023</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="K18">
-        <v>0.07751937984496124</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01550387596899225</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06976744186046512</v>
+        <v>0.05487804878048781</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1705426356589147</v>
+        <v>0.1768292682926829</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01851851851851852</v>
+        <v>0.01675041876046901</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1770833333333333</v>
+        <v>0.1876046901172529</v>
       </c>
       <c r="I19">
-        <v>0.1030092592592593</v>
+        <v>0.1038525963149079</v>
       </c>
       <c r="J19">
-        <v>0.3599537037037037</v>
+        <v>0.338358458961474</v>
       </c>
       <c r="K19">
-        <v>0.1087962962962963</v>
+        <v>0.1130653266331658</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01967592592592593</v>
+        <v>0.01842546063651591</v>
       </c>
       <c r="N19">
-        <v>0.002314814814814815</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="O19">
-        <v>0.07754629629629629</v>
+        <v>0.076214405360134</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1331018518518519</v>
+        <v>0.1432160804020101</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Pittsburgh_B.xlsx
+++ b/team_specific_matrix/Pittsburgh_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.16289592760181</v>
+        <v>0.1673469387755102</v>
       </c>
       <c r="C2">
-        <v>0.6561085972850679</v>
+        <v>0.6489795918367347</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09954751131221719</v>
+        <v>0.1061224489795918</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08144796380090498</v>
+        <v>0.07755102040816327</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006711409395973154</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C3">
-        <v>0.04697986577181208</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006711409395973154</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7651006711409396</v>
+        <v>0.7654320987654321</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.174496644295302</v>
+        <v>0.1790123456790123</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7241379310344828</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2758620689655172</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01025641025641026</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04102564102564103</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2205128205128205</v>
+        <v>0.2256637168141593</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02564102564102564</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1794871794871795</v>
+        <v>0.1814159292035398</v>
       </c>
       <c r="R6">
-        <v>0.05641025641025641</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.4070796460176991</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09036144578313253</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01807228915662651</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04819277108433735</v>
+        <v>0.04891304347826087</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1024096385542169</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01807228915662651</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2650602409638554</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="R7">
-        <v>0.1144578313253012</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="S7">
-        <v>0.3433734939759036</v>
+        <v>0.3532608695652174</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07277628032345014</v>
+        <v>0.07434052757793765</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01347708894878706</v>
+        <v>0.01199040767386091</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07547169811320754</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1078167115902965</v>
+        <v>0.105515587529976</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008086253369272238</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1563342318059299</v>
+        <v>0.1558752997601918</v>
       </c>
       <c r="R8">
-        <v>0.1078167115902965</v>
+        <v>0.1007194244604317</v>
       </c>
       <c r="S8">
-        <v>0.4582210242587601</v>
+        <v>0.4652278177458034</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09787234042553192</v>
+        <v>0.09363295880149813</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02127659574468085</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="E9">
-        <v>0.00425531914893617</v>
+        <v>0.003745318352059925</v>
       </c>
       <c r="F9">
-        <v>0.06808510638297872</v>
+        <v>0.0749063670411985</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1021276595744681</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02553191489361702</v>
+        <v>0.0299625468164794</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1574468085106383</v>
+        <v>0.1535580524344569</v>
       </c>
       <c r="R9">
-        <v>0.09787234042553192</v>
+        <v>0.09363295880149813</v>
       </c>
       <c r="S9">
-        <v>0.425531914893617</v>
+        <v>0.4269662921348314</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1002892960462874</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01735776277724204</v>
+        <v>0.01909722222222222</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07521697203471553</v>
+        <v>0.07725694444444445</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09739633558341369</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01253616200578592</v>
+        <v>0.01302083333333333</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2121504339440694</v>
+        <v>0.2161458333333333</v>
       </c>
       <c r="R10">
-        <v>0.0703953712632594</v>
+        <v>0.07378472222222222</v>
       </c>
       <c r="S10">
-        <v>0.4146576663452266</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1391941391941392</v>
+        <v>0.13</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1208791208791209</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="K11">
-        <v>0.1978021978021978</v>
+        <v>0.1933333333333333</v>
       </c>
       <c r="L11">
-        <v>0.5311355311355311</v>
+        <v>0.5366666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01098901098901099</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6878980891719745</v>
+        <v>0.7011494252873564</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2292993630573248</v>
+        <v>0.2183908045977012</v>
       </c>
       <c r="K12">
-        <v>0.01910828025477707</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="L12">
-        <v>0.03184713375796178</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03184713375796178</v>
+        <v>0.02873563218390805</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03398058252427184</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1650485436893204</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="I15">
-        <v>0.1359223300970874</v>
+        <v>0.1347826086956522</v>
       </c>
       <c r="J15">
-        <v>0.3106796116504854</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="K15">
-        <v>0.07766990291262135</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004854368932038835</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04854368932038835</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2233009708737864</v>
+        <v>0.2260869565217391</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0131578947368421</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.131578947368421</v>
+        <v>0.125748502994012</v>
       </c>
       <c r="I16">
-        <v>0.1118421052631579</v>
+        <v>0.1077844311377246</v>
       </c>
       <c r="J16">
-        <v>0.4144736842105263</v>
+        <v>0.407185628742515</v>
       </c>
       <c r="K16">
-        <v>0.08552631578947369</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006578947368421052</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08552631578947369</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1513157894736842</v>
+        <v>0.1616766467065868</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02307692307692308</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1666666666666667</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="I17">
-        <v>0.1256410256410256</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="J17">
-        <v>0.3871794871794872</v>
+        <v>0.3772727272727273</v>
       </c>
       <c r="K17">
-        <v>0.09487179487179487</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01794871794871795</v>
+        <v>0.02045454545454545</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07179487179487179</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1128205128205128</v>
+        <v>0.1113636363636364</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006097560975609756</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1707317073170732</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="I18">
-        <v>0.0975609756097561</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="J18">
-        <v>0.4024390243902439</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="K18">
-        <v>0.07926829268292683</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01219512195121951</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05487804878048781</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1768292682926829</v>
+        <v>0.1593406593406593</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01675041876046901</v>
+        <v>0.01660377358490566</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1876046901172529</v>
+        <v>0.190188679245283</v>
       </c>
       <c r="I19">
-        <v>0.1038525963149079</v>
+        <v>0.1071698113207547</v>
       </c>
       <c r="J19">
-        <v>0.338358458961474</v>
+        <v>0.3403773584905661</v>
       </c>
       <c r="K19">
-        <v>0.1130653266331658</v>
+        <v>0.1109433962264151</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01842546063651591</v>
+        <v>0.01660377358490566</v>
       </c>
       <c r="N19">
-        <v>0.002512562814070352</v>
+        <v>0.002264150943396227</v>
       </c>
       <c r="O19">
-        <v>0.076214405360134</v>
+        <v>0.07698113207547169</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1432160804020101</v>
+        <v>0.1388679245283019</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Pittsburgh_B.xlsx
+++ b/team_specific_matrix/Pittsburgh_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1673469387755102</v>
+        <v>0.1673003802281369</v>
       </c>
       <c r="C2">
-        <v>0.6489795918367347</v>
+        <v>0.6463878326996197</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1061224489795918</v>
+        <v>0.1102661596958175</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07755102040816327</v>
+        <v>0.07604562737642585</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006172839506172839</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="C3">
-        <v>0.04320987654320987</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006172839506172839</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7654320987654321</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1790123456790123</v>
+        <v>0.1839080459770115</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6875</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3125</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06637168141592921</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008849557522123894</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03539823008849557</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2256637168141593</v>
+        <v>0.2294372294372294</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02212389380530973</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1814159292035398</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R6">
-        <v>0.05309734513274336</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="S6">
-        <v>0.4070796460176991</v>
+        <v>0.4025974025974026</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09782608695652174</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01630434782608696</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04891304347826087</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09239130434782608</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01630434782608696</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2608695652173913</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="R7">
-        <v>0.1141304347826087</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S7">
-        <v>0.3532608695652174</v>
+        <v>0.3492063492063492</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07434052757793765</v>
+        <v>0.08027522935779817</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01199040767386091</v>
+        <v>0.01146788990825688</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07913669064748201</v>
+        <v>0.07568807339449542</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.105515587529976</v>
+        <v>0.1032110091743119</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007194244604316547</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1558752997601918</v>
+        <v>0.1536697247706422</v>
       </c>
       <c r="R8">
-        <v>0.1007194244604317</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="S8">
-        <v>0.4652278177458034</v>
+        <v>0.4655963302752293</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09363295880149813</v>
+        <v>0.09352517985611511</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02247191011235955</v>
+        <v>0.02517985611510791</v>
       </c>
       <c r="E9">
-        <v>0.003745318352059925</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="F9">
-        <v>0.0749063670411985</v>
+        <v>0.07553956834532374</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.101123595505618</v>
+        <v>0.1043165467625899</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0299625468164794</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1535580524344569</v>
+        <v>0.1510791366906475</v>
       </c>
       <c r="R9">
-        <v>0.09363295880149813</v>
+        <v>0.09352517985611511</v>
       </c>
       <c r="S9">
-        <v>0.4269662921348314</v>
+        <v>0.4244604316546763</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09722222222222222</v>
+        <v>0.09882747068676717</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01909722222222222</v>
+        <v>0.01842546063651591</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07725694444444445</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09722222222222222</v>
+        <v>0.09966499162479062</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01302083333333333</v>
+        <v>0.01340033500837521</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2161458333333333</v>
+        <v>0.2185929648241206</v>
       </c>
       <c r="R10">
-        <v>0.07378472222222222</v>
+        <v>0.0728643216080402</v>
       </c>
       <c r="S10">
-        <v>0.40625</v>
+        <v>0.4028475711892797</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.13</v>
+        <v>0.1286173633440514</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1266666666666667</v>
+        <v>0.1254019292604502</v>
       </c>
       <c r="K11">
-        <v>0.1933333333333333</v>
+        <v>0.1961414790996785</v>
       </c>
       <c r="L11">
-        <v>0.5366666666666666</v>
+        <v>0.5337620578778135</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01333333333333333</v>
+        <v>0.01607717041800643</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7011494252873564</v>
+        <v>0.6983240223463687</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2183908045977012</v>
+        <v>0.223463687150838</v>
       </c>
       <c r="K12">
-        <v>0.01724137931034483</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="L12">
-        <v>0.03448275862068965</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02873563218390805</v>
+        <v>0.02793296089385475</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03043478260869565</v>
+        <v>0.02953586497890295</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1695652173913043</v>
+        <v>0.1729957805907173</v>
       </c>
       <c r="I15">
-        <v>0.1347826086956522</v>
+        <v>0.1308016877637131</v>
       </c>
       <c r="J15">
-        <v>0.3130434782608696</v>
+        <v>0.3080168776371308</v>
       </c>
       <c r="K15">
-        <v>0.07391304347826087</v>
+        <v>0.07172995780590717</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008695652173913044</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04347826086956522</v>
+        <v>0.04219409282700422</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2260869565217391</v>
+        <v>0.2362869198312236</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01197604790419162</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.125748502994012</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="I16">
-        <v>0.1077844311377246</v>
+        <v>0.111731843575419</v>
       </c>
       <c r="J16">
-        <v>0.407185628742515</v>
+        <v>0.4022346368715084</v>
       </c>
       <c r="K16">
-        <v>0.08982035928143713</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01197604790419162</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08383233532934131</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1616766467065868</v>
+        <v>0.1620111731843575</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02727272727272727</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1636363636363636</v>
+        <v>0.1626373626373626</v>
       </c>
       <c r="I17">
-        <v>0.1318181818181818</v>
+        <v>0.1340659340659341</v>
       </c>
       <c r="J17">
-        <v>0.3772727272727273</v>
+        <v>0.3802197802197802</v>
       </c>
       <c r="K17">
-        <v>0.09545454545454546</v>
+        <v>0.0945054945054945</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02045454545454545</v>
+        <v>0.01978021978021978</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07272727272727272</v>
+        <v>0.07252747252747253</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1113636363636364</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01648351648351648</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1758241758241758</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I18">
-        <v>0.09340659340659341</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J18">
-        <v>0.4010989010989011</v>
+        <v>0.4010695187165775</v>
       </c>
       <c r="K18">
-        <v>0.08791208791208792</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01098901098901099</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05494505494505494</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1593406593406593</v>
+        <v>0.1550802139037433</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01660377358490566</v>
+        <v>0.01680058436815194</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.190188679245283</v>
+        <v>0.1928414901387874</v>
       </c>
       <c r="I19">
-        <v>0.1071698113207547</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="J19">
-        <v>0.3403773584905661</v>
+        <v>0.3389335281227173</v>
       </c>
       <c r="K19">
-        <v>0.1109433962264151</v>
+        <v>0.1110299488677867</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01660377358490566</v>
+        <v>0.01680058436815194</v>
       </c>
       <c r="N19">
-        <v>0.002264150943396227</v>
+        <v>0.002191380569758948</v>
       </c>
       <c r="O19">
-        <v>0.07698113207547169</v>
+        <v>0.07523739956172389</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1388679245283019</v>
+        <v>0.1380569758948137</v>
       </c>
     </row>
   </sheetData>
